--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang11/01.TraBH/TBH_SaoViet_121124.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang11/01.TraBH/TBH_SaoViet_121124.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -96,10 +96,34 @@
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý Cao Anh Vương</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày 12 tháng 11 năm 2024</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Sao Việt</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>006011074327396</t>
+  </si>
+  <si>
+    <t>Mất cấu hình</t>
+  </si>
+  <si>
+    <t>Cấu hình lại</t>
+  </si>
+  <si>
+    <t>Lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>Thay bộ nhớ</t>
+  </si>
+  <si>
+    <t>TG102LE-4G</t>
   </si>
 </sst>
 </file>
@@ -228,16 +252,16 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -319,117 +343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -437,36 +350,12 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -542,6 +431,54 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -575,21 +512,21 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -621,13 +558,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,95 +576,83 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,23 +676,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>642232</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195290</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>233626</xdr:rowOff>
+      <xdr:rowOff>218972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>694036</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>893885</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>15797</xdr:rowOff>
+      <xdr:rowOff>1143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,8 +714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="944404" y="233626"/>
-          <a:ext cx="2070751" cy="609861"/>
+          <a:off x="195290" y="218972"/>
+          <a:ext cx="1826941" cy="617440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1094,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1031,8 @@
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -1115,78 +1040,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="43" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="46" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="46" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="49" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1194,12 +1119,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1207,12 +1132,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1223,12 +1148,12 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1279,26 +1204,50 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="34">
+        <v>1</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="35"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="49">
+        <v>862205051151779</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="35"/>
       <c r="J13" s="7"/>
     </row>
@@ -1318,26 +1267,26 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -1384,19 +1333,19 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
@@ -1410,12 +1359,20 @@
       <c r="I22" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B24:C24"/>
@@ -1423,17 +1380,8 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
